--- a/Others/Service Accounts.xlsx
+++ b/Others/Service Accounts.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sivakumar\TechM-Nissan\Others\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Service Account ID</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>X980066 EQUIP_BDE_Refinery (Account to read from all EQUIP Ingestion databases and write to new TCS refineries)</t>
+  </si>
+  <si>
+    <t>Application.Comment</t>
+  </si>
+  <si>
+    <t>TECH_CMPLNC_RFNRY.EWS / iSearch Related</t>
+  </si>
+  <si>
+    <t>CSTMR_QLTY_TRAN.EQUIP</t>
+  </si>
+  <si>
+    <t>WARRANTY_RFNRY.EQUIP</t>
+  </si>
+  <si>
+    <t>VHCL_QLTY_SRVY_RFNRY.EQUIP</t>
+  </si>
+  <si>
+    <t>.EQUIP</t>
+  </si>
+  <si>
+    <t>CSTMR_QLTY_TRAN_RFNRY.EQUIP</t>
+  </si>
+  <si>
+    <t>.DBS</t>
+  </si>
+  <si>
+    <t>.EWS</t>
   </si>
 </sst>
 </file>
@@ -271,25 +298,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,20 +322,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,26 +663,30 @@
     <col min="2" max="2" width="104.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="103.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="103.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -637,34 +696,49 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -677,73 +751,114 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="E6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="E9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -755,11 +870,14 @@
         <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -767,12 +885,13 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -782,9 +901,12 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -794,8 +916,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -805,8 +928,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -816,36 +940,27 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+  <mergeCells count="2">
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
